--- a/Другое/Доходы-Расходы.xlsx
+++ b/Другое/Доходы-Расходы.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Октябрь 2025" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="G6" authorId="0" shapeId="0">
+    <comment ref="G6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q6" authorId="0" shapeId="0">
+    <comment ref="Q6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R6" authorId="0" shapeId="0">
+    <comment ref="R6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S6" authorId="0" shapeId="0">
+    <comment ref="S6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T6" authorId="0" shapeId="0">
+    <comment ref="T6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -157,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q8" authorId="0" shapeId="0">
+    <comment ref="Q8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -183,7 +183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q13" authorId="0" shapeId="0">
+    <comment ref="Q13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -310,8 +310,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,28 +479,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -512,6 +497,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -581,7 +581,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -616,7 +616,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -793,122 +793,123 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AS34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="23" width="20.7109375" style="2" customWidth="1"/>
     <col min="24" max="35" width="12.7109375" style="2" customWidth="1"/>
     <col min="36" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:45" ht="60.75" customHeight="1">
+      <c r="A1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-    </row>
-    <row r="2" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+    </row>
+    <row r="2" spans="1:45" ht="45" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="X2" s="1"/>
@@ -934,1176 +935,1190 @@
       <c r="AR2" s="1"/>
       <c r="AS2" s="1"/>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+    <row r="3" spans="1:45">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7">
         <v>1224</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7">
         <v>1000</v>
       </c>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="8">
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="4">
         <f>SUM(C3:T3)</f>
         <v>2224</v>
       </c>
-      <c r="V3" s="9"/>
-      <c r="W3" s="5">
+      <c r="V3" s="5"/>
+      <c r="W3" s="13">
         <f>V34-U34</f>
-        <v>11984</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+        <v>72663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="13">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="8">
         <f t="shared" ref="U4:U33" si="0">SUM(C4:T4)</f>
         <v>0</v>
       </c>
-      <c r="V4" s="15"/>
-      <c r="W4" s="6"/>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="V4" s="10"/>
+      <c r="W4" s="14"/>
+    </row>
+    <row r="5" spans="1:45">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="7">
         <f>1950-340-340-340-500</f>
         <v>430</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7">
         <v>335</v>
       </c>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12">
+      <c r="N5" s="7"/>
+      <c r="O5" s="7">
         <v>3000</v>
       </c>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="8">
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="4">
         <f t="shared" si="0"/>
         <v>3765</v>
       </c>
-      <c r="V5" s="9">
+      <c r="V5" s="5">
         <v>83130</v>
       </c>
-      <c r="W5" s="6"/>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="W5" s="14"/>
+    </row>
+    <row r="6" spans="1:45">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9">
         <v>3180</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14">
+      <c r="H6" s="9"/>
+      <c r="I6" s="9">
         <f>3650+640+176</f>
         <v>4466</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14">
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9">
         <f>270+285</f>
         <v>555</v>
       </c>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14">
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9">
         <v>799</v>
       </c>
-      <c r="R6" s="14">
+      <c r="R6" s="9">
         <v>7214</v>
       </c>
-      <c r="S6" s="14">
+      <c r="S6" s="9">
         <v>5498</v>
       </c>
-      <c r="T6" s="14">
+      <c r="T6" s="9">
         <v>1650</v>
       </c>
-      <c r="U6" s="13">
+      <c r="U6" s="8">
         <f t="shared" si="0"/>
         <v>23362</v>
       </c>
-      <c r="V6" s="15"/>
-      <c r="W6" s="6"/>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="V6" s="10"/>
+      <c r="W6" s="14"/>
+    </row>
+    <row r="7" spans="1:45">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7">
         <v>2490</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7">
         <v>420</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12">
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7">
         <v>338</v>
       </c>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="8">
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="4">
         <f t="shared" si="0"/>
         <v>3248</v>
       </c>
-      <c r="V7" s="9"/>
-      <c r="W7" s="6"/>
-    </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="V7" s="5"/>
+      <c r="W7" s="14"/>
+    </row>
+    <row r="8" spans="1:45">
+      <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9">
         <v>17600</v>
       </c>
-      <c r="Q8" s="14">
+      <c r="Q8" s="9">
         <v>169</v>
       </c>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="13">
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="8">
         <f t="shared" si="0"/>
         <v>17769</v>
       </c>
-      <c r="V8" s="15"/>
-      <c r="W8" s="6"/>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="V8" s="10"/>
+      <c r="W8" s="14"/>
+    </row>
+    <row r="9" spans="1:45">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="7">
         <v>206</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7">
         <v>300</v>
       </c>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="8">
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="4">
         <f t="shared" si="0"/>
         <v>506</v>
       </c>
-      <c r="V9" s="9"/>
-      <c r="W9" s="6"/>
-    </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="V9" s="5"/>
+      <c r="W9" s="14"/>
+    </row>
+    <row r="10" spans="1:45">
+      <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="9">
         <v>878</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9">
         <v>2000</v>
       </c>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="13">
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="8">
         <f t="shared" si="0"/>
         <v>2878</v>
       </c>
-      <c r="V10" s="15"/>
-      <c r="W10" s="6"/>
-    </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="V10" s="10"/>
+      <c r="W10" s="14"/>
+    </row>
+    <row r="11" spans="1:45">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="7">
         <v>727</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7">
         <v>287</v>
       </c>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="8">
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="4">
         <f t="shared" si="0"/>
         <v>1014</v>
       </c>
-      <c r="V11" s="9"/>
-      <c r="W11" s="6"/>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="V11" s="5"/>
+      <c r="W11" s="14"/>
+    </row>
+    <row r="12" spans="1:45">
+      <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="9">
         <v>878</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9">
         <v>1162</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14">
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9">
         <v>2500</v>
       </c>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="13">
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="8">
         <f t="shared" si="0"/>
         <v>4540</v>
       </c>
-      <c r="V12" s="15"/>
-      <c r="W12" s="6"/>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="V12" s="10"/>
+      <c r="W12" s="14"/>
+    </row>
+    <row r="13" spans="1:45">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7">
         <v>280</v>
       </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12">
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7">
         <v>900</v>
       </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12">
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7">
         <v>700</v>
       </c>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="8">
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="4">
         <f t="shared" si="0"/>
         <v>1880</v>
       </c>
-      <c r="V13" s="9"/>
-      <c r="W13" s="6"/>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+      <c r="V13" s="5"/>
+      <c r="W13" s="14"/>
+    </row>
+    <row r="14" spans="1:45">
+      <c r="A14" s="8">
         <v>12</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9">
         <v>1141</v>
       </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14">
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9">
         <v>1000</v>
       </c>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="13">
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="8">
         <f t="shared" si="0"/>
         <v>2141</v>
       </c>
-      <c r="V14" s="15"/>
-      <c r="W14" s="6"/>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="V14" s="10"/>
+      <c r="W14" s="14"/>
+    </row>
+    <row r="15" spans="1:45">
+      <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7">
         <v>314</v>
       </c>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="8">
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="4">
         <f t="shared" si="0"/>
         <v>314</v>
       </c>
-      <c r="V15" s="9"/>
-      <c r="W15" s="6"/>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
+      <c r="V15" s="5"/>
+      <c r="W15" s="14"/>
+    </row>
+    <row r="16" spans="1:45">
+      <c r="A16" s="8">
         <v>14</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="9">
         <f>773-563</f>
         <v>210</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9">
         <v>575</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="13">
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="8">
         <f t="shared" si="0"/>
         <v>785</v>
       </c>
-      <c r="V16" s="15"/>
-      <c r="W16" s="6"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="V16" s="10"/>
+      <c r="W16" s="14"/>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="7">
         <v>799</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="7">
         <v>1663</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12">
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7">
         <v>249</v>
       </c>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="8">
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="4">
         <f t="shared" si="0"/>
         <v>2711</v>
       </c>
-      <c r="V17" s="9"/>
-      <c r="W17" s="6"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
+      <c r="V17" s="5"/>
+      <c r="W17" s="14"/>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" s="8">
         <v>16</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="9">
         <v>791</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9">
         <f>249+2600</f>
         <v>2849</v>
       </c>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14">
+      <c r="L18" s="9"/>
+      <c r="M18" s="9">
         <v>276</v>
       </c>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14">
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9">
         <v>93</v>
       </c>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="13">
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="8">
         <f t="shared" si="0"/>
         <v>4009</v>
       </c>
-      <c r="V18" s="15"/>
-      <c r="W18" s="6"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="V18" s="10"/>
+      <c r="W18" s="14"/>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" s="4">
         <v>17</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="8">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7">
+        <v>1062</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7">
+        <v>365</v>
+      </c>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="4">
+        <f t="shared" si="0"/>
+        <v>1427</v>
+      </c>
+      <c r="V19" s="5"/>
+      <c r="W19" s="14"/>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="8">
+        <v>18</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9">
+        <v>705</v>
+      </c>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="8">
+        <f t="shared" si="0"/>
+        <v>705</v>
+      </c>
+      <c r="V20" s="10"/>
+      <c r="W20" s="14"/>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V19" s="9"/>
-      <c r="W19" s="6"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
-        <v>18</v>
-      </c>
-      <c r="B20" s="13" t="s">
+      <c r="V21" s="5"/>
+      <c r="W21" s="14"/>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="8">
+        <v>20</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="9">
+        <v>374</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9">
+        <v>2090</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="8">
+        <f t="shared" si="0"/>
+        <v>2464</v>
+      </c>
+      <c r="V22" s="10">
+        <v>65476</v>
+      </c>
+      <c r="W22" s="14"/>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7">
+        <v>201</v>
+      </c>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="4">
+        <f t="shared" si="0"/>
+        <v>201</v>
+      </c>
+      <c r="V23" s="5"/>
+      <c r="W23" s="14"/>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="8">
+        <v>22</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V24" s="10"/>
+      <c r="W24" s="14"/>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="4">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V25" s="5"/>
+      <c r="W25" s="14"/>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="8">
+        <v>24</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="10"/>
+      <c r="W26" s="14"/>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="4">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="13">
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V20" s="15"/>
-      <c r="W20" s="6"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>19</v>
-      </c>
-      <c r="B21" s="8" t="s">
+      <c r="V27" s="5"/>
+      <c r="W27" s="14"/>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="8">
+        <v>26</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="8">
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V21" s="9"/>
-      <c r="W21" s="6"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
-        <v>20</v>
-      </c>
-      <c r="B22" s="13" t="s">
+      <c r="V28" s="10"/>
+      <c r="W28" s="14"/>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="4">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="13">
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V22" s="15"/>
-      <c r="W22" s="6"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
-        <v>21</v>
-      </c>
-      <c r="B23" s="8" t="s">
+      <c r="V29" s="5"/>
+      <c r="W29" s="14"/>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="8">
+        <v>28</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="8">
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V23" s="9"/>
-      <c r="W23" s="6"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
-        <v>22</v>
-      </c>
-      <c r="B24" s="13" t="s">
+      <c r="V30" s="10"/>
+      <c r="W30" s="14"/>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="4">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="13">
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V24" s="15"/>
-      <c r="W24" s="6"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <v>23</v>
-      </c>
-      <c r="B25" s="8" t="s">
+      <c r="V31" s="5"/>
+      <c r="W31" s="14"/>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="8">
+        <v>30</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="8">
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V25" s="9"/>
-      <c r="W25" s="6"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
+      <c r="V32" s="10"/>
+      <c r="W32" s="14"/>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="4">
+        <v>31</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V33" s="5"/>
+      <c r="W33" s="14"/>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V26" s="15"/>
-      <c r="W26" s="6"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
-        <v>25</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V27" s="9"/>
-      <c r="W27" s="6"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
-        <v>26</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V28" s="15"/>
-      <c r="W28" s="6"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
-        <v>27</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V29" s="9"/>
-      <c r="W29" s="6"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="13">
-        <v>28</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V30" s="15"/>
-      <c r="W30" s="6"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
-        <v>29</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V31" s="9"/>
-      <c r="W31" s="6"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
-        <v>30</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V32" s="15"/>
-      <c r="W32" s="6"/>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
-        <v>31</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V33" s="9"/>
-      <c r="W33" s="6"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11">
+      <c r="B34" s="11"/>
+      <c r="C34" s="6">
         <f>SUM(C3:C33)</f>
-        <v>4919</v>
-      </c>
-      <c r="D34" s="11">
+        <v>5293</v>
+      </c>
+      <c r="D34" s="6">
         <f t="shared" ref="D34:V34" si="1">SUM(D3:D33)</f>
         <v>5377</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="6">
         <f t="shared" si="1"/>
-        <v>575</v>
-      </c>
-      <c r="F34" s="11">
+        <v>2665</v>
+      </c>
+      <c r="F34" s="6">
         <f t="shared" si="1"/>
-        <v>1162</v>
-      </c>
-      <c r="G34" s="11">
+        <v>2224</v>
+      </c>
+      <c r="G34" s="6">
         <f t="shared" si="1"/>
         <v>5021</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H34" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I34" s="6">
         <f>SUM(I3:I33)</f>
         <v>4466</v>
       </c>
-      <c r="J34" s="11">
+      <c r="J34" s="6">
         <f>SUM(J3:J33)</f>
         <v>900</v>
       </c>
-      <c r="K34" s="11">
+      <c r="K34" s="6">
         <f t="shared" si="1"/>
         <v>2849</v>
       </c>
-      <c r="L34" s="11">
+      <c r="L34" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M34" s="11">
+      <c r="M34" s="6">
         <f t="shared" si="1"/>
-        <v>2067</v>
-      </c>
-      <c r="N34" s="11">
+        <v>3338</v>
+      </c>
+      <c r="N34" s="6">
         <f t="shared" si="1"/>
         <v>2287</v>
       </c>
-      <c r="O34" s="11">
+      <c r="O34" s="6">
         <f t="shared" si="1"/>
         <v>7500</v>
       </c>
-      <c r="P34" s="11">
+      <c r="P34" s="6">
         <f t="shared" si="1"/>
         <v>17600</v>
       </c>
-      <c r="Q34" s="11">
+      <c r="Q34" s="6">
         <f t="shared" si="1"/>
         <v>1668</v>
       </c>
-      <c r="R34" s="11">
+      <c r="R34" s="6">
         <f t="shared" si="1"/>
         <v>7607</v>
       </c>
-      <c r="S34" s="11">
+      <c r="S34" s="6">
         <f t="shared" si="1"/>
         <v>5498</v>
       </c>
-      <c r="T34" s="11">
+      <c r="T34" s="6">
         <f t="shared" si="1"/>
         <v>1650</v>
       </c>
-      <c r="U34" s="11">
+      <c r="U34" s="6">
         <f t="shared" si="1"/>
-        <v>71146</v>
-      </c>
-      <c r="V34" s="11">
+        <v>75943</v>
+      </c>
+      <c r="V34" s="6">
         <f t="shared" si="1"/>
-        <v>83130</v>
-      </c>
-      <c r="W34" s="7"/>
+        <v>148606</v>
+      </c>
+      <c r="W34" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Другое/Доходы-Расходы.xlsx
+++ b/Другое/Доходы-Расходы.xlsx
@@ -209,12 +209,91 @@
         </r>
       </text>
     </comment>
+    <comment ref="L24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Таблетки и свечи
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Яндекс Плюс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Интернет</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
   <si>
     <t>Число</t>
   </si>
@@ -283,9 +362,6 @@
     <t>Ежемесячны платежи</t>
   </si>
   <si>
-    <t>Другое</t>
-  </si>
-  <si>
     <t>Доходы</t>
   </si>
   <si>
@@ -305,13 +381,43 @@
   </si>
   <si>
     <t>Коммуналка / ЖКХ</t>
+  </si>
+  <si>
+    <t>В копилочку</t>
+  </si>
+  <si>
+    <t>Развлечения</t>
+  </si>
+  <si>
+    <t>Повседневные расходы</t>
+  </si>
+  <si>
+    <t>Лимит</t>
+  </si>
+  <si>
+    <t>Другое (повседневное)</t>
+  </si>
+  <si>
+    <t>Другое (развлечения)</t>
+  </si>
+  <si>
+    <t>Текущие расходы</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Остаток</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="#,##0.00\ &quot;₽&quot;"/>
+  </numFmts>
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,8 +482,14 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Albertus MT"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,8 +526,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -469,11 +587,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF134873"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF134873"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF134873"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF134873"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF134873"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF134873"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF134873"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF134873"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF134873"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF134873"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -510,6 +702,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -793,7 +1010,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -801,11 +1018,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS34"/>
+  <dimension ref="A1:AS43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M42" sqref="M42"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -817,7 +1034,7 @@
   <sheetData>
     <row r="1" spans="1:45" ht="60.75" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -868,10 +1085,10 @@
         <v>14</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>15</v>
@@ -895,22 +1112,22 @@
         <v>21</v>
       </c>
       <c r="R2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="W2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
@@ -971,7 +1188,7 @@
       <c r="V3" s="5"/>
       <c r="W3" s="13">
         <f>V34-U34</f>
-        <v>72663</v>
+        <v>66675</v>
       </c>
     </row>
     <row r="4" spans="1:45">
@@ -1688,7 +1905,9 @@
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="E23" s="7">
+        <v>825</v>
+      </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -1708,7 +1927,7 @@
       <c r="T23" s="7"/>
       <c r="U23" s="4">
         <f t="shared" si="0"/>
-        <v>201</v>
+        <v>1026</v>
       </c>
       <c r="V23" s="5"/>
       <c r="W23" s="14"/>
@@ -1721,7 +1940,9 @@
         <v>2</v>
       </c>
       <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+      <c r="D24" s="9">
+        <v>1315</v>
+      </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -1729,18 +1950,24 @@
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
+      <c r="L24" s="9">
+        <v>3168</v>
+      </c>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
+      <c r="Q24" s="9">
+        <v>380</v>
+      </c>
+      <c r="R24" s="9">
+        <v>300</v>
+      </c>
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
       <c r="U24" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5163</v>
       </c>
       <c r="V24" s="10"/>
       <c r="W24" s="14"/>
@@ -2035,7 +2262,7 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="6">
@@ -2044,11 +2271,11 @@
       </c>
       <c r="D34" s="6">
         <f t="shared" ref="D34:V34" si="1">SUM(D3:D33)</f>
-        <v>5377</v>
+        <v>6692</v>
       </c>
       <c r="E34" s="6">
         <f t="shared" si="1"/>
-        <v>2665</v>
+        <v>3490</v>
       </c>
       <c r="F34" s="6">
         <f t="shared" si="1"/>
@@ -2076,7 +2303,7 @@
       </c>
       <c r="L34" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3168</v>
       </c>
       <c r="M34" s="6">
         <f t="shared" si="1"/>
@@ -2096,11 +2323,11 @@
       </c>
       <c r="Q34" s="6">
         <f t="shared" si="1"/>
-        <v>1668</v>
+        <v>2048</v>
       </c>
       <c r="R34" s="6">
         <f t="shared" si="1"/>
-        <v>7607</v>
+        <v>7907</v>
       </c>
       <c r="S34" s="6">
         <f t="shared" si="1"/>
@@ -2112,7 +2339,7 @@
       </c>
       <c r="U34" s="6">
         <f t="shared" si="1"/>
-        <v>75943</v>
+        <v>81931</v>
       </c>
       <c r="V34" s="6">
         <f t="shared" si="1"/>
@@ -2120,14 +2347,138 @@
       </c>
       <c r="W34" s="15"/>
     </row>
+    <row r="38" spans="1:23" ht="30" customHeight="1">
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="17"/>
+      <c r="F38" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" s="17"/>
+      <c r="H38" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38" s="17"/>
+    </row>
+    <row r="39" spans="1:23" ht="30" customHeight="1">
+      <c r="B39" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="E39" s="24"/>
+      <c r="F39" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="G39" s="24"/>
+      <c r="H39" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="I39" s="24"/>
+    </row>
+    <row r="40" spans="1:23" ht="30" customHeight="1">
+      <c r="B40" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="17"/>
+      <c r="D40" s="21">
+        <f>V22*D39</f>
+        <v>32738</v>
+      </c>
+      <c r="E40" s="22"/>
+      <c r="F40" s="21">
+        <f>V22*F39</f>
+        <v>19642.8</v>
+      </c>
+      <c r="G40" s="22"/>
+      <c r="H40" s="21">
+        <f>V22*H39</f>
+        <v>13095.2</v>
+      </c>
+      <c r="I40" s="22"/>
+    </row>
+    <row r="41" spans="1:23" ht="30" customHeight="1">
+      <c r="B41" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="17"/>
+      <c r="D41" s="21">
+        <f>SUM(C22:C33,D22:D33,E22:E33,F22:F33,I22:I33,L22:L33,M22:M33,N22:N33,P22:P33,Q22:Q33,R22:R33,S22:S33)</f>
+        <v>8653</v>
+      </c>
+      <c r="E41" s="22"/>
+      <c r="F41" s="21">
+        <f>SUM(G22:G33,H22:H33,J22:J33,K22:K33,O22:O33,T22:T33)</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="22"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="22"/>
+    </row>
+    <row r="42" spans="1:23" ht="30" customHeight="1">
+      <c r="B42" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="17"/>
+      <c r="D42" s="21">
+        <f>D40-D41</f>
+        <v>24085</v>
+      </c>
+      <c r="E42" s="22"/>
+      <c r="F42" s="21">
+        <f t="shared" ref="F42" si="2">F40-F41</f>
+        <v>19642.8</v>
+      </c>
+      <c r="G42" s="22"/>
+      <c r="H42" s="21">
+        <f t="shared" ref="H42" si="3">H40-H41</f>
+        <v>13095.2</v>
+      </c>
+      <c r="I42" s="22"/>
+    </row>
+    <row r="43" spans="1:23">
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="23">
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="W3:W34"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Другое/Доходы-Расходы.xlsx
+++ b/Другое/Доходы-Расходы.xlsx
@@ -415,7 +415,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -689,6 +689,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -702,31 +727,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1010,7 +1010,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1021,8 +1021,8 @@
   <dimension ref="A1:AS43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M23" sqref="M23"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1033,31 +1033,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="60.75" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
     </row>
     <row r="2" spans="1:45" ht="45" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -1186,9 +1186,9 @@
         <v>2224</v>
       </c>
       <c r="V3" s="5"/>
-      <c r="W3" s="13">
+      <c r="W3" s="22">
         <f>V34-U34</f>
-        <v>66675</v>
+        <v>50904</v>
       </c>
     </row>
     <row r="4" spans="1:45">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="V4" s="10"/>
-      <c r="W4" s="14"/>
+      <c r="W4" s="23"/>
     </row>
     <row r="5" spans="1:45">
       <c r="A5" s="4">
@@ -1262,7 +1262,7 @@
       <c r="V5" s="5">
         <v>83130</v>
       </c>
-      <c r="W5" s="14"/>
+      <c r="W5" s="23"/>
     </row>
     <row r="6" spans="1:45">
       <c r="A6" s="8">
@@ -1310,7 +1310,7 @@
         <v>23362</v>
       </c>
       <c r="V6" s="10"/>
-      <c r="W6" s="14"/>
+      <c r="W6" s="23"/>
     </row>
     <row r="7" spans="1:45">
       <c r="A7" s="4">
@@ -1348,7 +1348,7 @@
         <v>3248</v>
       </c>
       <c r="V7" s="5"/>
-      <c r="W7" s="14"/>
+      <c r="W7" s="23"/>
     </row>
     <row r="8" spans="1:45">
       <c r="A8" s="8">
@@ -1384,7 +1384,7 @@
         <v>17769</v>
       </c>
       <c r="V8" s="10"/>
-      <c r="W8" s="14"/>
+      <c r="W8" s="23"/>
     </row>
     <row r="9" spans="1:45">
       <c r="A9" s="4">
@@ -1420,7 +1420,7 @@
         <v>506</v>
       </c>
       <c r="V9" s="5"/>
-      <c r="W9" s="14"/>
+      <c r="W9" s="23"/>
     </row>
     <row r="10" spans="1:45">
       <c r="A10" s="8">
@@ -1456,7 +1456,7 @@
         <v>2878</v>
       </c>
       <c r="V10" s="10"/>
-      <c r="W10" s="14"/>
+      <c r="W10" s="23"/>
     </row>
     <row r="11" spans="1:45">
       <c r="A11" s="4">
@@ -1492,7 +1492,7 @@
         <v>1014</v>
       </c>
       <c r="V11" s="5"/>
-      <c r="W11" s="14"/>
+      <c r="W11" s="23"/>
     </row>
     <row r="12" spans="1:45">
       <c r="A12" s="8">
@@ -1530,7 +1530,7 @@
         <v>4540</v>
       </c>
       <c r="V12" s="10"/>
-      <c r="W12" s="14"/>
+      <c r="W12" s="23"/>
     </row>
     <row r="13" spans="1:45">
       <c r="A13" s="4">
@@ -1568,7 +1568,7 @@
         <v>1880</v>
       </c>
       <c r="V13" s="5"/>
-      <c r="W13" s="14"/>
+      <c r="W13" s="23"/>
     </row>
     <row r="14" spans="1:45">
       <c r="A14" s="8">
@@ -1604,7 +1604,7 @@
         <v>2141</v>
       </c>
       <c r="V14" s="10"/>
-      <c r="W14" s="14"/>
+      <c r="W14" s="23"/>
     </row>
     <row r="15" spans="1:45">
       <c r="A15" s="4">
@@ -1638,7 +1638,7 @@
         <v>314</v>
       </c>
       <c r="V15" s="5"/>
-      <c r="W15" s="14"/>
+      <c r="W15" s="23"/>
     </row>
     <row r="16" spans="1:45">
       <c r="A16" s="8">
@@ -1675,7 +1675,7 @@
         <v>785</v>
       </c>
       <c r="V16" s="10"/>
-      <c r="W16" s="14"/>
+      <c r="W16" s="23"/>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="4">
@@ -1713,7 +1713,7 @@
         <v>2711</v>
       </c>
       <c r="V17" s="5"/>
-      <c r="W17" s="14"/>
+      <c r="W17" s="23"/>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="8">
@@ -1754,7 +1754,7 @@
         <v>4009</v>
       </c>
       <c r="V18" s="10"/>
-      <c r="W18" s="14"/>
+      <c r="W18" s="23"/>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="4">
@@ -1790,7 +1790,7 @@
         <v>1427</v>
       </c>
       <c r="V19" s="5"/>
-      <c r="W19" s="14"/>
+      <c r="W19" s="23"/>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="8">
@@ -1824,7 +1824,7 @@
         <v>705</v>
       </c>
       <c r="V20" s="10"/>
-      <c r="W20" s="14"/>
+      <c r="W20" s="23"/>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="4">
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="5"/>
-      <c r="W21" s="14"/>
+      <c r="W21" s="23"/>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="8">
@@ -1894,7 +1894,7 @@
       <c r="V22" s="10">
         <v>65476</v>
       </c>
-      <c r="W22" s="14"/>
+      <c r="W22" s="23"/>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" s="4">
@@ -1930,7 +1930,7 @@
         <v>1026</v>
       </c>
       <c r="V23" s="5"/>
-      <c r="W23" s="14"/>
+      <c r="W23" s="23"/>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="8">
@@ -1970,7 +1970,7 @@
         <v>5163</v>
       </c>
       <c r="V24" s="10"/>
-      <c r="W24" s="14"/>
+      <c r="W24" s="23"/>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="4">
@@ -1987,9 +1987,14 @@
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
+      <c r="K25" s="7">
+        <f>249+14990</f>
+        <v>15239</v>
+      </c>
       <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
+      <c r="M25" s="7">
+        <v>532</v>
+      </c>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
@@ -1999,10 +2004,10 @@
       <c r="T25" s="7"/>
       <c r="U25" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15771</v>
       </c>
       <c r="V25" s="5"/>
-      <c r="W25" s="14"/>
+      <c r="W25" s="23"/>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" s="8">
@@ -2034,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="V26" s="10"/>
-      <c r="W26" s="14"/>
+      <c r="W26" s="23"/>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" s="4">
@@ -2066,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="V27" s="5"/>
-      <c r="W27" s="14"/>
+      <c r="W27" s="23"/>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" s="8">
@@ -2098,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="V28" s="10"/>
-      <c r="W28" s="14"/>
+      <c r="W28" s="23"/>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" s="4">
@@ -2130,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="V29" s="5"/>
-      <c r="W29" s="14"/>
+      <c r="W29" s="23"/>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" s="8">
@@ -2162,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="V30" s="10"/>
-      <c r="W30" s="14"/>
+      <c r="W30" s="23"/>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" s="4">
@@ -2194,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="V31" s="5"/>
-      <c r="W31" s="14"/>
+      <c r="W31" s="23"/>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" s="8">
@@ -2226,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="V32" s="10"/>
-      <c r="W32" s="14"/>
+      <c r="W32" s="23"/>
     </row>
     <row r="33" spans="1:23">
       <c r="A33" s="4">
@@ -2258,13 +2263,13 @@
         <v>0</v>
       </c>
       <c r="V33" s="5"/>
-      <c r="W33" s="14"/>
+      <c r="W33" s="23"/>
     </row>
     <row r="34" spans="1:23">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="11"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="6">
         <f>SUM(C3:C33)</f>
         <v>5293</v>
@@ -2299,7 +2304,7 @@
       </c>
       <c r="K34" s="6">
         <f t="shared" si="1"/>
-        <v>2849</v>
+        <v>18088</v>
       </c>
       <c r="L34" s="6">
         <f t="shared" si="1"/>
@@ -2307,7 +2312,7 @@
       </c>
       <c r="M34" s="6">
         <f t="shared" si="1"/>
-        <v>3338</v>
+        <v>3870</v>
       </c>
       <c r="N34" s="6">
         <f t="shared" si="1"/>
@@ -2339,120 +2344,131 @@
       </c>
       <c r="U34" s="6">
         <f t="shared" si="1"/>
-        <v>81931</v>
+        <v>97702</v>
       </c>
       <c r="V34" s="6">
         <f t="shared" si="1"/>
         <v>148606</v>
       </c>
-      <c r="W34" s="15"/>
+      <c r="W34" s="24"/>
     </row>
     <row r="38" spans="1:23" ht="30" customHeight="1">
-      <c r="B38" s="16"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="16" t="s">
+      <c r="B38" s="14"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="17"/>
-      <c r="F38" s="16" t="s">
+      <c r="E38" s="15"/>
+      <c r="F38" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G38" s="17"/>
-      <c r="H38" s="16" t="s">
+      <c r="G38" s="15"/>
+      <c r="H38" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="I38" s="17"/>
+      <c r="I38" s="15"/>
     </row>
     <row r="39" spans="1:23" ht="30" customHeight="1">
       <c r="B39" s="18" t="s">
         <v>36</v>
       </c>
       <c r="C39" s="19"/>
-      <c r="D39" s="23">
+      <c r="D39" s="12">
         <v>0.5</v>
       </c>
-      <c r="E39" s="24"/>
-      <c r="F39" s="23">
+      <c r="E39" s="13"/>
+      <c r="F39" s="12">
         <v>0.3</v>
       </c>
-      <c r="G39" s="24"/>
-      <c r="H39" s="23">
+      <c r="G39" s="13"/>
+      <c r="H39" s="12">
         <v>0.2</v>
       </c>
-      <c r="I39" s="24"/>
+      <c r="I39" s="13"/>
     </row>
     <row r="40" spans="1:23" ht="30" customHeight="1">
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="21">
+      <c r="C40" s="15"/>
+      <c r="D40" s="16">
         <f>V22*D39</f>
         <v>32738</v>
       </c>
-      <c r="E40" s="22"/>
-      <c r="F40" s="21">
+      <c r="E40" s="17"/>
+      <c r="F40" s="16">
         <f>V22*F39</f>
         <v>19642.8</v>
       </c>
-      <c r="G40" s="22"/>
-      <c r="H40" s="21">
+      <c r="G40" s="17"/>
+      <c r="H40" s="16">
         <f>V22*H39</f>
         <v>13095.2</v>
       </c>
-      <c r="I40" s="22"/>
+      <c r="I40" s="17"/>
     </row>
     <row r="41" spans="1:23" ht="30" customHeight="1">
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="21">
+      <c r="C41" s="15"/>
+      <c r="D41" s="16">
         <f>SUM(C22:C33,D22:D33,E22:E33,F22:F33,I22:I33,L22:L33,M22:M33,N22:N33,P22:P33,Q22:Q33,R22:R33,S22:S33)</f>
-        <v>8653</v>
-      </c>
-      <c r="E41" s="22"/>
-      <c r="F41" s="21">
+        <v>9185</v>
+      </c>
+      <c r="E41" s="17"/>
+      <c r="F41" s="16">
         <f>SUM(G22:G33,H22:H33,J22:J33,K22:K33,O22:O33,T22:T33)</f>
-        <v>0</v>
-      </c>
-      <c r="G41" s="22"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="22"/>
+        <v>15239</v>
+      </c>
+      <c r="G41" s="17"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="17"/>
     </row>
     <row r="42" spans="1:23" ht="30" customHeight="1">
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="21">
+      <c r="C42" s="15"/>
+      <c r="D42" s="16">
         <f>D40-D41</f>
-        <v>24085</v>
-      </c>
-      <c r="E42" s="22"/>
-      <c r="F42" s="21">
+        <v>23553</v>
+      </c>
+      <c r="E42" s="17"/>
+      <c r="F42" s="16">
         <f t="shared" ref="F42" si="2">F40-F41</f>
-        <v>19642.8</v>
-      </c>
-      <c r="G42" s="22"/>
-      <c r="H42" s="21">
+        <v>4403.7999999999993</v>
+      </c>
+      <c r="G42" s="17"/>
+      <c r="H42" s="16">
         <f t="shared" ref="H42" si="3">H40-H41</f>
         <v>13095.2</v>
       </c>
-      <c r="I42" s="22"/>
+      <c r="I42" s="17"/>
     </row>
     <row r="43" spans="1:23">
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="W3:W34"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="H39:I39"/>
     <mergeCell ref="B42:C42"/>
@@ -2461,21 +2477,10 @@
     <mergeCell ref="H42:I42"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
     <mergeCell ref="H40:I40"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="H41:I41"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="W3:W34"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
